--- a/2023/poland_ekstraklasa_2023-2024.xlsx
+++ b/2023/poland_ekstraklasa_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V68"/>
+  <dimension ref="A1:V71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6713,6 +6713,282 @@
         </is>
       </c>
     </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E69" s="2" t="n">
+        <v>45191.75</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Korona Kielce</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>1</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Widzew Lodz</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>1</v>
+      </c>
+      <c r="J69" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>17/09/2023 14:13</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>22/09/2023 17:51</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>17/09/2023 14:13</t>
+        </is>
+      </c>
+      <c r="P69" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>22/09/2023 17:51</t>
+        </is>
+      </c>
+      <c r="R69" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>17/09/2023 14:13</t>
+        </is>
+      </c>
+      <c r="T69" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>22/09/2023 17:51</t>
+        </is>
+      </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/ekstraklasa/korona-kielce-widzew-lodz/Wxt0ATg3/</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E70" s="2" t="n">
+        <v>45191.85416666666</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>LKS Lodz</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>2</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Jagiellonia</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>2</v>
+      </c>
+      <c r="J70" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>19/09/2023 13:42</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>22/09/2023 20:25</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>19/09/2023 13:42</t>
+        </is>
+      </c>
+      <c r="P70" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>22/09/2023 20:25</t>
+        </is>
+      </c>
+      <c r="R70" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>19/09/2023 13:42</t>
+        </is>
+      </c>
+      <c r="T70" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>22/09/2023 20:25</t>
+        </is>
+      </c>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/ekstraklasa/lks-lodz-jagiellonia/jsPr251q/</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E71" s="2" t="n">
+        <v>45192.52083333334</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Radomiak Radom</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>1</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Puszcza</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>1</v>
+      </c>
+      <c r="J71" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>19/09/2023 13:42</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>23/09/2023 12:25</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>19/09/2023 13:42</t>
+        </is>
+      </c>
+      <c r="P71" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>23/09/2023 12:25</t>
+        </is>
+      </c>
+      <c r="R71" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>19/09/2023 13:42</t>
+        </is>
+      </c>
+      <c r="T71" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>23/09/2023 12:25</t>
+        </is>
+      </c>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/ekstraklasa/radomiak-radom-puszcza/KbYC7RwM/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/poland_ekstraklasa_2023-2024.xlsx
+++ b/2023/poland_ekstraklasa_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V71"/>
+  <dimension ref="A1:V77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6989,6 +6989,558 @@
         </is>
       </c>
     </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E72" s="2" t="n">
+        <v>45192.625</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Slask Wroclaw</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>1</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Piast Gliwice</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>16/09/2023 19:13</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>23/09/2023 14:54</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>16/09/2023 19:13</t>
+        </is>
+      </c>
+      <c r="P72" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>23/09/2023 14:54</t>
+        </is>
+      </c>
+      <c r="R72" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>16/09/2023 19:13</t>
+        </is>
+      </c>
+      <c r="T72" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>23/09/2023 14:54</t>
+        </is>
+      </c>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/ekstraklasa/slask-wroclaw-piast-gliwice/UXNn1PGk/</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E73" s="2" t="n">
+        <v>45192.72916666666</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Cracovia</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>1</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Pogon Szczecin</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>5</v>
+      </c>
+      <c r="J73" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>17/09/2023 14:13</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>23/09/2023 16:04</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>17/09/2023 14:13</t>
+        </is>
+      </c>
+      <c r="P73" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>23/09/2023 14:45</t>
+        </is>
+      </c>
+      <c r="R73" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>17/09/2023 14:13</t>
+        </is>
+      </c>
+      <c r="T73" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>23/09/2023 16:04</t>
+        </is>
+      </c>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/ekstraklasa/cracovia-pogon-szczecin/GUcDnQ1d/</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="n">
+        <v>45192.83333333334</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Lech Poznan</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>2</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Stal Mielec</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>1</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>18/09/2023 18:12</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>23/09/2023 19:57</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>18/09/2023 18:12</t>
+        </is>
+      </c>
+      <c r="P74" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>23/09/2023 19:57</t>
+        </is>
+      </c>
+      <c r="R74" t="n">
+        <v>10.36</v>
+      </c>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>18/09/2023 18:12</t>
+        </is>
+      </c>
+      <c r="T74" t="n">
+        <v>8.99</v>
+      </c>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>23/09/2023 19:57</t>
+        </is>
+      </c>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/ekstraklasa/lech-poznan-stal-mielec/Qau49m99/</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="n">
+        <v>45193.52083333334</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Zaglebie</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>1</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Warta Poznan</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>18/09/2023 18:12</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>24/09/2023 12:21</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>18/09/2023 18:12</t>
+        </is>
+      </c>
+      <c r="P75" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>24/09/2023 12:21</t>
+        </is>
+      </c>
+      <c r="R75" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>18/09/2023 18:12</t>
+        </is>
+      </c>
+      <c r="T75" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>24/09/2023 12:21</t>
+        </is>
+      </c>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/ekstraklasa/zaglebie-warta-poznan/hnsdB9vc/</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E76" s="2" t="n">
+        <v>45193.625</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Ruch Chorzow</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>3</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Rakow</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>5</v>
+      </c>
+      <c r="J76" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>19/09/2023 13:42</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>24/09/2023 14:42</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>19/09/2023 13:42</t>
+        </is>
+      </c>
+      <c r="P76" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>24/09/2023 14:42</t>
+        </is>
+      </c>
+      <c r="R76" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>19/09/2023 13:42</t>
+        </is>
+      </c>
+      <c r="T76" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>24/09/2023 14:42</t>
+        </is>
+      </c>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/ekstraklasa/ruch-chorzow-rakow-czestochowa/bkXG6ogS/</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E77" s="2" t="n">
+        <v>45193.72916666666</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Legia</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>2</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Gornik Zabrze</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>1</v>
+      </c>
+      <c r="J77" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>17/09/2023 16:43</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>24/09/2023 17:26</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>17/09/2023 16:43</t>
+        </is>
+      </c>
+      <c r="P77" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>24/09/2023 17:18</t>
+        </is>
+      </c>
+      <c r="R77" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>17/09/2023 16:43</t>
+        </is>
+      </c>
+      <c r="T77" t="n">
+        <v>6.37</v>
+      </c>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>24/09/2023 17:18</t>
+        </is>
+      </c>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/ekstraklasa/legia-gornik-zabrze/xzq887OF/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/poland_ekstraklasa_2023-2024.xlsx
+++ b/2023/poland_ekstraklasa_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V77"/>
+  <dimension ref="A1:V78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7541,6 +7541,98 @@
         </is>
       </c>
     </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E78" s="2" t="n">
+        <v>45196.83333333334</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Pogon Szczecin</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>3</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Legia</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>4</v>
+      </c>
+      <c r="J78" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>24/09/2023 16:42</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>27/09/2023 19:50</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>24/09/2023 16:42</t>
+        </is>
+      </c>
+      <c r="P78" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>27/09/2023 19:25</t>
+        </is>
+      </c>
+      <c r="R78" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>24/09/2023 16:42</t>
+        </is>
+      </c>
+      <c r="T78" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>27/09/2023 19:50</t>
+        </is>
+      </c>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/ekstraklasa/pogon-szczecin-legia/rypDtbZ5/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
